--- a/medicine/Soins infirmiers et profession infirmière/Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace/Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace/Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_r%C3%A9gion_de_Mulhouse_et_Sud-Alsace</t>
+          <t>Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupe hospitalier de la région de Mulhouse et Sud-Alsace (GHRMSA) est un groupe hospitalier regroupant 10 établissements dans le Haut-Rhin, en région Grand Est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_r%C3%A9gion_de_Mulhouse_et_Sud-Alsace</t>
+          <t>Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 1er janvier 2015, les sites du centre hospitalier de Mulhouse (Émile Muller et Hasenrain), du centre Hospitalier Saint-Jacques de Thann, de l’hôpital gériatrique de Cernay et de l’EHPAD de Bitschwiller-lès-Thann se rapprochent[2].  En 1316 existait à Mulhouse un hôpital pour les indigents[3], l’hôpital Mœnschberg, devenue Émile Muller en 1989, a accueilli ses premiers patients en 1972[4].
-Une pénurie de personnels intervient en septembre 2021 : 210 personnes non vaccinées sont suspendues, ce qui cause la mise en place du plan blanc afin de mobiliser des personnels supplémentaires[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er janvier 2015, les sites du centre hospitalier de Mulhouse (Émile Muller et Hasenrain), du centre Hospitalier Saint-Jacques de Thann, de l’hôpital gériatrique de Cernay et de l’EHPAD de Bitschwiller-lès-Thann se rapprochent.  En 1316 existait à Mulhouse un hôpital pour les indigents, l’hôpital Mœnschberg, devenue Émile Muller en 1989, a accueilli ses premiers patients en 1972.
+Une pénurie de personnels intervient en septembre 2021 : 210 personnes non vaccinées sont suspendues, ce qui cause la mise en place du plan blanc afin de mobiliser des personnels supplémentaires,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_r%C3%A9gion_de_Mulhouse_et_Sud-Alsace</t>
+          <t>Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il regroupe 10 sites pour une capacité de 2 612 lits et places[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il regroupe 10 sites pour une capacité de 2 612 lits et places :
 Centre hospitalier de Mulhouse site Émile Muller (824 places)
 Centre hospitalier de Mulhouse site du Hasenrain
 EHPAD Maison médicalisée pour personnes âgées
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_r%C3%A9gion_de_Mulhouse_et_Sud-Alsace</t>
+          <t>Groupe_hospitalier_de_la_région_de_Mulhouse_et_Sud-Alsace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il offre de soins publique de grande qualité à l’essentiel des 480 000 habitants du Sud-Alsace, le groupe hospitalier fait partie du groupement hospitalier de territoire Haute-Alsace qui totalise 13 filières de santé[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il offre de soins publique de grande qualité à l’essentiel des 480 000 habitants du Sud-Alsace, le groupe hospitalier fait partie du groupement hospitalier de territoire Haute-Alsace qui totalise 13 filières de santé.
 </t>
         </is>
       </c>
